--- a/TSamsungStore.xlsx
+++ b/TSamsungStore.xlsx
@@ -3,10 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1440" yWindow="1200" windowWidth="25860" windowHeight="18440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1440" yWindow="1200" windowWidth="25860" windowHeight="18440" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ppn" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wheat_buyer" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="buyer" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -18,7 +20,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0.00_);\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <name val="宋体"/>
       <family val="2"/>
@@ -40,6 +42,32 @@
       <color theme="1"/>
       <sz val="10"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="PingFang SC"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,12 +105,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -451,13 +485,13 @@
   </sheetPr>
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col width="31.5" customWidth="1" style="3" min="1" max="1"/>
+    <col width="31.5" customWidth="1" style="9" min="1" max="1"/>
     <col width="20.6640625" customWidth="1" min="2" max="8"/>
   </cols>
   <sheetData>
@@ -545,4 +579,376 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="18.1640625" customWidth="1" min="2" max="2"/>
+    <col width="19.6640625" customWidth="1" min="3" max="3"/>
+    <col width="25.6640625" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>keyword</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>wheat_date</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>buyer</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>supplier</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>HSCode</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>buy_country</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>supplier_country</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>productContry</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>weight</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>totalValue</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>current_page</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>task_name</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>update_time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="17" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>M393A4K40EB3-CWE</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>45118</v>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>Ооо Мультибрендовый</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>Guangzhou Chiphome Information Technology Ltd</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>8473302008</v>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>электронный модуль - оперативная память, без цпу /не содержат беспроводных технологий, не военного назначения, отформатирован, не содержит информации, не содержит шифровальных (криптографических) блоkов, арт: m393a4k40eb3-cwe</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="6" t="n"/>
+      <c r="I2" s="7" t="inlineStr">
+        <is>
+          <t>韩国</t>
+        </is>
+      </c>
+      <c r="J2" s="5" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5" t="n">
+        <v>2597.18</v>
+      </c>
+      <c r="M2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5" t="inlineStr">
+        <is>
+          <t>TSamsungStore</t>
+        </is>
+      </c>
+      <c r="O2" s="8" t="n">
+        <v>45378.76496527778</v>
+      </c>
+    </row>
+    <row r="3" ht="17" customHeight="1">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>M393A4K40EB3-CWE</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>45229</v>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>Ооо Тд Кьютэк</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>Kamilhan Lojistik Dis Tic Ltd</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>8542323900</v>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>модуль оперативной памяти ddr4 32gb samsung m393a4k40eb3-cwe для сборки коммутаторов qtech qsrv. не предназначен для негласного получения информации. не содержит средств шифрования и криптографии, не лом электрооборудования, не военного назначения:</t>
+        </is>
+      </c>
+      <c r="G3" s="6" t="n"/>
+      <c r="H3" s="6" t="n"/>
+      <c r="I3" s="7" t="inlineStr">
+        <is>
+          <t>韩国</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K3" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="L3" s="5" t="n">
+        <v>4224.6</v>
+      </c>
+      <c r="M3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5" t="inlineStr">
+        <is>
+          <t>TSamsungStore</t>
+        </is>
+      </c>
+      <c r="O3" s="8" t="n">
+        <v>45378.76496527778</v>
+      </c>
+    </row>
+    <row r="4" ht="17" customHeight="1">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>M393A8G40AB2-CWE</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>45124</v>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Ооо Руж</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>Wahtron Electronic Shenzhen Ltd</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>8473302008</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>электронные модули товарной позиции 8471.не содержит устройств криптографии и шифрования данных, не для негласного получения информации.оперативная память торговой марки samsung модель: m393a8g40ab2-cwe:</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="6" t="n"/>
+      <c r="I4" s="7" t="inlineStr">
+        <is>
+          <t>越南</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>15255.78</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5" t="inlineStr">
+        <is>
+          <t>TSamsungStore</t>
+        </is>
+      </c>
+      <c r="O4" s="8" t="n">
+        <v>45378.76775462963</v>
+      </c>
+    </row>
+    <row r="5" ht="17" customHeight="1">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>M393A8G40BB4-CWE</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>45216</v>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Ооо Мультибрендовый</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Guangzhou Chiphome Information Technology Ltd</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>8473302008</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>электронный модуль - оперативная память, без цпу /не содержат беспроводных технологий, не военного назначения, отформатирован, не содержит информации, не содержит шифровальных (криптографических) блоков, арт: m393a8g40bb4-cwe</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="6" t="n"/>
+      <c r="I5" s="7" t="inlineStr">
+        <is>
+          <t>韩国</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>1592.98</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5" t="inlineStr">
+        <is>
+          <t>TSamsungStore</t>
+        </is>
+      </c>
+      <c r="O5" s="8" t="n">
+        <v>45378.76997685185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col width="23" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Ооо Мультибрендовый</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>Ооо Тд Кьютэк</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Ооо Руж</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>Ооо Мультибрендовый</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>